--- a/Categories/CategoriesEN.xlsx
+++ b/Categories/CategoriesEN.xlsx
@@ -7,11 +7,6 @@
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhggLoCaOe02qREy5jyZFxYH4b1AQ=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -48,7 +43,7 @@
     <t>Fri</t>
   </si>
   <si>
-    <t>Health and Quality of Life</t>
+    <t>Health and Qualitify of Life</t>
   </si>
   <si>
     <t>HQL</t>
@@ -126,7 +121,7 @@
     <t>WPC</t>
   </si>
   <si>
-    <t>Other or invalid</t>
+    <t>Others and Invalid</t>
   </si>
   <si>
     <t>OI</t>
@@ -168,13 +163,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -396,7 +390,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="40.29"/>
     <col customWidth="1" min="2" max="2" width="9.71"/>
-    <col customWidth="1" min="3" max="28" width="8.71"/>
+    <col customWidth="1" min="3" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -440,7 +434,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -544,7 +538,7 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1530,6 +1524,8 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
